--- a/meal_plan.xlsx
+++ b/meal_plan.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyaramirez/Dropbox/Shared_Kyle_Danya/Food/Program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Dropbox/Shared with Danya/Food/Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="27620" windowHeight="17360" tabRatio="500"/>
+    <workbookView xWindow="9580" yWindow="460" windowWidth="18200" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="current week" sheetId="6" r:id="rId1"/>
-    <sheet name="List" sheetId="5" r:id="rId2"/>
-    <sheet name="previous weeks" sheetId="4" r:id="rId3"/>
-    <sheet name="template" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
+    <sheet name="List" sheetId="5" r:id="rId3"/>
+    <sheet name="previous weeks" sheetId="4" r:id="rId4"/>
+    <sheet name="template" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="72">
   <si>
     <t>Breakfast</t>
   </si>
@@ -242,10 +243,10 @@
     <t>chard</t>
   </si>
   <si>
-    <t>purple potato</t>
-  </si>
-  <si>
-    <t>pumpkin</t>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>potato</t>
   </si>
 </sst>
 </file>
@@ -664,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,22 +802,22 @@
     </row>
     <row r="11" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
@@ -825,294 +826,218 @@
     </row>
     <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>8</v>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>8</v>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
+      <c r="B20" t="s">
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" t="s">
-        <v>71</v>
-      </c>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
         <v>8</v>
       </c>
       <c r="H27" t="s">
@@ -1121,52 +1046,38 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" t="s">
-        <v>27</v>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" t="s">
-        <v>18</v>
+      <c r="B29" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
         <v>28</v>
       </c>
       <c r="H31" t="s">
@@ -1175,271 +1086,246 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="B33" s="1"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
+      <c r="B35" t="s">
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
-      <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
-      <c r="B38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
       <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
+      <c r="D41" s="1"/>
       <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
+      <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
-      <c r="G45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G55" s="1"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G56" s="1"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="1"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G58" s="1"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G59" s="1"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G60" s="1"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G61" s="1"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="6"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1457,13 +1343,13 @@
           <x14:formula1>
             <xm:f>List!$A$1:$A$48</xm:f>
           </x14:formula1>
-          <xm:sqref>E22:E23 F42 B22:B23 D41:D42 G41:H42 G50:G51 G23 H22:H23</xm:sqref>
+          <xm:sqref>G63 H59 G62:H62 G51 B42 C23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>List!$A$1:$A$60</xm:f>
           </x14:formula1>
-          <xm:sqref>E15:E21 G34:H40 B15:B21 D34:D40 G45:G49 H15:H21</xm:sqref>
+          <xm:sqref>H60:H61 G55:G61 H55:H58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1473,10 +1359,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P259"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1957,13 +1883,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BH46"/>
   <sheetViews>
-    <sheetView topLeftCell="Y23" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AN54"/>
+    <sheetView topLeftCell="AF11" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AS50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6705,7 +6631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>

--- a/meal_plan.xlsx
+++ b/meal_plan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyle/Dropbox/Shared with Danya/Food/Program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyaramirez/Dropbox/Shared_Kyle_Danya/Food/Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="73">
   <si>
     <t>Breakfast</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>potato</t>
+  </si>
+  <si>
+    <t>purple potato</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="105" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,8 +843,8 @@
       <c r="A15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -849,23 +852,23 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
+      <c r="E15" t="s">
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
         <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
-      <c r="B16" t="s">
-        <v>30</v>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -873,17 +876,17 @@
       <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
+      <c r="E16" t="s">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
         <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -985,15 +988,12 @@
     <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1103,20 +1103,20 @@
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
+      <c r="D34" t="s">
+        <v>11</v>
       </c>
       <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
+      <c r="H34" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="K34" s="1"/>
     </row>
@@ -1128,20 +1128,20 @@
       <c r="C35" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
+      <c r="D35" t="s">
+        <v>30</v>
       </c>
       <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" t="s">
-        <v>30</v>
+      <c r="H35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1254,10 +1254,10 @@
       <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s">
         <v>37</v>
       </c>
       <c r="J40" s="1"/>
@@ -1265,9 +1265,6 @@
     <row r="41" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="D41" s="1"/>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
